--- a/prerequisites/course list.xlsx
+++ b/prerequisites/course list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/prerequisites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/prerequisites/trial prereq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4855" documentId="8_{2ABD4177-2D5A-4AA4-9627-1CEEC0ED2AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC5B04A-BC06-49D7-AD7E-78789B42D3E7}"/>
+  <xr:revisionPtr revIDLastSave="4888" documentId="8_{2ABD4177-2D5A-4AA4-9627-1CEEC0ED2AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19F3876-C76C-4441-83F7-15EFABAEBFD6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C94CA748-7A52-4BE5-86AB-9B6D20594E39}"/>
+    <workbookView xWindow="1920" yWindow="2490" windowWidth="15840" windowHeight="11925" xr2:uid="{C94CA748-7A52-4BE5-86AB-9B6D20594E39}"/>
   </bookViews>
   <sheets>
     <sheet name="lista corsi" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'all courses'!$A$1:$G$528</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lista corsi'!$E$1:$E$1626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lista corsi'!$E$1:$E$1628</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="1054">
   <si>
     <t>letter part of code</t>
   </si>
@@ -3210,6 +3210,12 @@
   </si>
   <si>
     <t>Money, Banking and Capital Markets</t>
+  </si>
+  <si>
+    <t>CS/BUS</t>
+  </si>
+  <si>
+    <t>LAW/PL</t>
   </si>
 </sst>
 </file>
@@ -3661,11 +3667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71C7232-9E14-4D41-BDBC-29CB8FAE0041}">
-  <dimension ref="A1:M1626"/>
+  <dimension ref="A1:M1629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A1623" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1629" sqref="C1629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,7 +3708,7 @@
       </c>
       <c r="G1" s="3">
         <f>_xlfn.MAXIFS(E:E,E:E,"&lt;1000")+1</f>
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>923</v>
@@ -4065,20 +4071,20 @@
         <v>854</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C21" s="2">
         <v>388</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E21" s="2">
         <v>10017</v>
       </c>
     </row>
@@ -7398,7 +7404,7 @@
         <v>1026</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>56</v>
+        <v>1052</v>
       </c>
       <c r="C240" s="2">
         <v>399</v>
@@ -29020,7 +29026,7 @@
         <v>1049</v>
       </c>
       <c r="B1626" s="2" t="s">
-        <v>1048</v>
+        <v>921</v>
       </c>
       <c r="C1626" s="2">
         <v>251</v>
@@ -29032,7 +29038,59 @@
         <v>852</v>
       </c>
     </row>
+    <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1627" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1627" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>328</v>
+      </c>
+      <c r="D1627" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1627" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1628" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1628" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1628" s="2">
+        <v>299</v>
+      </c>
+      <c r="D1628" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1628" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1629" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>499</v>
+      </c>
+      <c r="D1629" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1629" s="2">
+        <v>870</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="E1:E1628" xr:uid="{A71C7232-9E14-4D41-BDBC-29CB8FAE0041}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
